--- a/Buyer hub/Reports/Manual testcases/Receiving report.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Receiving report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240F36B-E111-469D-8C7C-AA5E2C9D4C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5782B5CC-130D-4388-B3CA-9C5BB53BDE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>SL. No</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Once click the Delivery date/Order date and select the particular dates and click the Generate report</t>
+  </si>
+  <si>
+    <t>Its gets displayed the Supplier dropdown list</t>
+  </si>
+  <si>
+    <t>Once click the Generate report button its gets displayed the details of Excel sheet</t>
   </si>
 </sst>
 </file>
@@ -526,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +631,9 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
@@ -646,7 +654,9 @@
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="6" t="s">
         <v>10</v>
       </c>

--- a/Buyer hub/Reports/Manual testcases/Receiving report.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Receiving report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5782B5CC-130D-4388-B3CA-9C5BB53BDE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572723A1-C030-4A35-90D8-6EC508E9CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
